--- a/results/mp/tinybert/toy-spam/confidence/126/stop-words-topk-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/126/stop-words-topk-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="120">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,234 +43,249 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>crap</t>
   </si>
   <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>poor</t>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>ripped</t>
+  </si>
+  <si>
+    <t>broke</t>
   </si>
   <si>
     <t>returned</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>ripped</t>
-  </si>
-  <si>
     <t>tiny</t>
   </si>
   <si>
-    <t>thin</t>
+    <t>water</t>
   </si>
   <si>
     <t>junk</t>
   </si>
   <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
     <t>guess</t>
   </si>
   <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>smaller</t>
+    <t>instead</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
-    <t>instead</t>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>broken</t>
   </si>
   <si>
     <t>plastic</t>
   </si>
   <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
     <t>missing</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>un</t>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>di</t>
   </si>
   <si>
     <t>pay</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
-    <t>half</t>
+    <t>short</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>though</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
     <t>sound</t>
   </si>
   <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>fit</t>
+    <t>money</t>
+  </si>
+  <si>
+    <t>would</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
     <t>could</t>
   </si>
   <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>34</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>pieces</t>
+    <t>first</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>buy</t>
   </si>
   <si>
     <t>even</t>
   </si>
   <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>made</t>
+  </si>
+  <si>
+    <t>toy</t>
+  </si>
+  <si>
+    <t>one</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>toy</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
     <t>bought</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
     <t>excellent</t>
   </si>
   <si>
@@ -280,12 +295,12 @@
     <t>classic</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
@@ -295,34 +310,31 @@
     <t>pleased</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
-    <t>perfect</t>
+    <t>best</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>expansion</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>learn</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
     <t>every</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>enjoyed</t>
   </si>
   <si>
     <t>christmas</t>
@@ -334,37 +346,28 @@
     <t>fun</t>
   </si>
   <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>book</t>
-  </si>
-  <si>
     <t>easy</t>
   </si>
   <si>
-    <t>games</t>
+    <t>family</t>
   </si>
   <si>
     <t>game</t>
   </si>
   <si>
-    <t>family</t>
+    <t>playing</t>
   </si>
   <si>
     <t>cute</t>
   </si>
   <si>
-    <t>playing</t>
+    <t>nice</t>
   </si>
   <si>
     <t>play</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>year</t>
   </si>
   <si>
     <t>good</t>
@@ -728,7 +731,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q73"/>
+  <dimension ref="A1:Q78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -736,10 +739,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -797,13 +800,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -815,19 +818,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K3">
-        <v>0.875</v>
+        <v>0.9</v>
       </c>
       <c r="L3">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="M3">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -839,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -847,13 +850,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9047619047619048</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -865,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K4">
-        <v>0.8387096774193549</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L4">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="M4">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -889,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -897,13 +900,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8409090909090909</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="C5">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D5">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -915,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K5">
-        <v>0.8307692307692308</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L5">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="M5">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -939,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -947,13 +950,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8028169014084507</v>
+        <v>0.734375</v>
       </c>
       <c r="C6">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D6">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -965,19 +968,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K6">
-        <v>0.8148148148148148</v>
+        <v>0.8307692307692308</v>
       </c>
       <c r="L6">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="M6">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -989,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -997,13 +1000,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7368421052631579</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1015,19 +1018,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K7">
-        <v>0.8</v>
+        <v>0.8172043010752689</v>
       </c>
       <c r="L7">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="M7">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1039,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1047,13 +1050,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7311827956989247</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C8">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1065,19 +1068,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K8">
-        <v>0.765625</v>
+        <v>0.796875</v>
       </c>
       <c r="L8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1089,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1097,13 +1100,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.65625</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C9">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1115,19 +1118,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K9">
-        <v>0.7083333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="L9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1139,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1147,13 +1150,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6504854368932039</v>
+        <v>0.668918918918919</v>
       </c>
       <c r="C10">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="D10">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1165,19 +1168,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K10">
-        <v>0.660377358490566</v>
+        <v>0.6226415094339622</v>
       </c>
       <c r="L10">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M10">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1189,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1197,13 +1200,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6418918918918919</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C11">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1215,19 +1218,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K11">
-        <v>0.6376811594202898</v>
+        <v>0.5896700143472023</v>
       </c>
       <c r="L11">
-        <v>44</v>
+        <v>411</v>
       </c>
       <c r="M11">
-        <v>44</v>
+        <v>411</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1239,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>25</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1247,13 +1250,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6296296296296297</v>
+        <v>0.6407766990291263</v>
       </c>
       <c r="C12">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="D12">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1265,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K12">
-        <v>0.5824964131994261</v>
+        <v>0.5507246376811594</v>
       </c>
       <c r="L12">
-        <v>406</v>
+        <v>38</v>
       </c>
       <c r="M12">
-        <v>406</v>
+        <v>38</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1289,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>291</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1297,13 +1300,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6285714285714286</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1315,19 +1318,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K13">
-        <v>0.5435684647302904</v>
+        <v>0.524896265560166</v>
       </c>
       <c r="L13">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="M13">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1339,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>220</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1347,13 +1350,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6206896551724138</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C14">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D14">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1365,19 +1368,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="K14">
-        <v>0.4737704918032787</v>
+        <v>0.4770491803278689</v>
       </c>
       <c r="L14">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="M14">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1389,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1397,13 +1400,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6181818181818182</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="C15">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D15">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1415,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="K15">
-        <v>0.4528301886792453</v>
+        <v>0.4150943396226415</v>
       </c>
       <c r="L15">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M15">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1439,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1447,13 +1450,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5740740740740741</v>
+        <v>0.6</v>
       </c>
       <c r="C16">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D16">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1465,19 +1468,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K16">
-        <v>0.4036697247706422</v>
+        <v>0.3674698795180723</v>
       </c>
       <c r="L16">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="M16">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1489,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>195</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1497,13 +1500,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5476190476190477</v>
+        <v>0.5630252100840336</v>
       </c>
       <c r="C17">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D17">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1515,19 +1518,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="K17">
-        <v>0.3554216867469879</v>
+        <v>0.3547400611620795</v>
       </c>
       <c r="L17">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="M17">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1539,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>107</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1547,13 +1550,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5462184873949579</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="C18">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1565,19 +1568,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K18">
-        <v>0.3386243386243386</v>
+        <v>0.3416666666666667</v>
       </c>
       <c r="L18">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="M18">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1589,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>125</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1597,37 +1600,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5261627906976745</v>
+        <v>0.5370370370370371</v>
       </c>
       <c r="C19">
-        <v>181</v>
+        <v>29</v>
       </c>
       <c r="D19">
-        <v>182</v>
+        <v>29</v>
       </c>
       <c r="E19">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>163</v>
+        <v>25</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K19">
-        <v>0.3191489361702128</v>
+        <v>0.328042328042328</v>
       </c>
       <c r="L19">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="M19">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1639,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>32</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1647,13 +1650,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="C20">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D20">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1665,19 +1668,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K20">
-        <v>0.3166666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="L20">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="M20">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1689,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1697,13 +1700,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4566929133858268</v>
+        <v>0.518840579710145</v>
       </c>
       <c r="C21">
-        <v>58</v>
+        <v>179</v>
       </c>
       <c r="D21">
-        <v>58</v>
+        <v>179</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1715,19 +1718,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>69</v>
+        <v>166</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K21">
-        <v>0.2711864406779661</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L21">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="M21">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1739,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1747,13 +1750,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4222222222222222</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C22">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1765,31 +1768,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="K22">
-        <v>0.25</v>
+        <v>0.2236842105263158</v>
       </c>
       <c r="L22">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="M22">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>96</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1797,13 +1800,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4216867469879518</v>
+        <v>0.4418604651162791</v>
       </c>
       <c r="C23">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D23">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1815,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="K23">
         <v>0.216</v>
@@ -1847,13 +1850,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4210526315789473</v>
+        <v>0.4296875</v>
       </c>
       <c r="C24">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D24">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1865,31 +1868,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="K24">
-        <v>0.1973684210526316</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="L24">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M24">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="N24">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>61</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1897,13 +1900,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4126984126984127</v>
+        <v>0.4216867469879518</v>
       </c>
       <c r="C25">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D25">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1915,19 +1918,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="K25">
-        <v>0.1958041958041958</v>
+        <v>0.2048192771084337</v>
       </c>
       <c r="L25">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="M25">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1939,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>115</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1947,13 +1950,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4028436018957346</v>
+        <v>0.4015748031496063</v>
       </c>
       <c r="C26">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="D26">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1965,19 +1968,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K26">
-        <v>0.1847389558232932</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="L26">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="M26">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1989,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>203</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2018,28 +2021,28 @@
         <v>57</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="K27">
-        <v>0.1827956989247312</v>
+        <v>0.1615452151009658</v>
       </c>
       <c r="L27">
-        <v>34</v>
+        <v>184</v>
       </c>
       <c r="M27">
-        <v>34</v>
+        <v>186</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>152</v>
+        <v>955</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2047,13 +2050,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3720930232558139</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C28">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D28">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2065,31 +2068,31 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K28">
-        <v>0.1701754385964912</v>
+        <v>0.1016042780748663</v>
       </c>
       <c r="L28">
-        <v>194</v>
+        <v>38</v>
       </c>
       <c r="M28">
-        <v>195</v>
+        <v>38</v>
       </c>
       <c r="N28">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>946</v>
+        <v>336</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2097,13 +2100,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3650793650793651</v>
+        <v>0.3791469194312796</v>
       </c>
       <c r="C29">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="D29">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2115,19 +2118,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="K29">
-        <v>0.1587301587301587</v>
+        <v>0.1002785515320334</v>
       </c>
       <c r="L29">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M29">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2139,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>106</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2147,13 +2150,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3595505617977528</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="C30">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D30">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2165,31 +2168,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="K30">
-        <v>0.1538461538461539</v>
+        <v>0.0988296488946684</v>
       </c>
       <c r="L30">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="M30">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>99</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2197,49 +2200,49 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.359375</v>
+        <v>0.3518518518518519</v>
       </c>
       <c r="C31">
+        <v>19</v>
+      </c>
+      <c r="D31">
+        <v>19</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>35</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K31">
+        <v>0.06811145510835913</v>
+      </c>
+      <c r="L31">
+        <v>22</v>
+      </c>
+      <c r="M31">
         <v>23</v>
       </c>
-      <c r="D31">
-        <v>23</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>41</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K31">
-        <v>0.1363636363636364</v>
-      </c>
-      <c r="L31">
-        <v>21</v>
-      </c>
-      <c r="M31">
-        <v>21</v>
-      </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>133</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2247,13 +2250,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3518518518518519</v>
+        <v>0.3483146067415731</v>
       </c>
       <c r="C32">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D32">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2265,31 +2268,31 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K32">
-        <v>0.1045576407506702</v>
+        <v>0.06640625</v>
       </c>
       <c r="L32">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="M32">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="N32">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O32">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>334</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2297,13 +2300,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3203125</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C33">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="D33">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2315,31 +2318,31 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K33">
-        <v>0.0949367088607595</v>
+        <v>0.05172413793103448</v>
       </c>
       <c r="L33">
         <v>15</v>
       </c>
       <c r="M33">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N33">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>143</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2347,13 +2350,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C34">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D34">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2365,31 +2368,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="K34">
-        <v>0.08966861598440545</v>
+        <v>0.04</v>
       </c>
       <c r="L34">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="M34">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="N34">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O34">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>1401</v>
+        <v>720</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2397,13 +2400,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2985074626865671</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C35">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D35">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2415,31 +2418,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K35">
-        <v>0.07799442896935933</v>
+        <v>0.03018108651911469</v>
       </c>
       <c r="L35">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="M35">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>331</v>
+        <v>482</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2447,13 +2450,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2962962962962963</v>
+        <v>0.328125</v>
       </c>
       <c r="C36">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D36">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2465,31 +2468,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K36">
-        <v>0.07392996108949416</v>
+        <v>0.02418207681365576</v>
       </c>
       <c r="L36">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M36">
         <v>19</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>238</v>
+        <v>686</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2497,13 +2500,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2920792079207921</v>
+        <v>0.3174603174603174</v>
       </c>
       <c r="C37">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="D37">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2515,31 +2518,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>143</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K37">
-        <v>0.06481481481481481</v>
-      </c>
-      <c r="L37">
-        <v>21</v>
-      </c>
-      <c r="M37">
-        <v>21</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>303</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2547,13 +2526,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2753623188405797</v>
+        <v>0.3134328358208955</v>
       </c>
       <c r="C38">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D38">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2565,31 +2544,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>50</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K38">
-        <v>0.06</v>
-      </c>
-      <c r="L38">
-        <v>45</v>
-      </c>
-      <c r="M38">
-        <v>47</v>
-      </c>
-      <c r="N38">
-        <v>0.96</v>
-      </c>
-      <c r="O38">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P38" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q38">
-        <v>705</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2597,7 +2552,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2727272727272727</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="C39">
         <v>15</v>
@@ -2615,31 +2570,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>40</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K39">
-        <v>0.05862068965517241</v>
-      </c>
-      <c r="L39">
-        <v>17</v>
-      </c>
-      <c r="M39">
-        <v>17</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>273</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2647,13 +2578,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2307692307692308</v>
+        <v>0.293103448275862</v>
       </c>
       <c r="C40">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D40">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2665,31 +2596,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>90</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K40">
-        <v>0.03129445234708392</v>
-      </c>
-      <c r="L40">
-        <v>22</v>
-      </c>
-      <c r="M40">
-        <v>24</v>
-      </c>
-      <c r="N40">
-        <v>0.92</v>
-      </c>
-      <c r="O40">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="P40" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q40">
-        <v>681</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2697,13 +2604,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2164948453608248</v>
+        <v>0.2577319587628866</v>
       </c>
       <c r="C41">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D41">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2715,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2723,13 +2630,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2142857142857143</v>
+        <v>0.2551020408163265</v>
       </c>
       <c r="C42">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D42">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2741,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2749,13 +2656,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2061855670103093</v>
+        <v>0.2478632478632479</v>
       </c>
       <c r="C43">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D43">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2767,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2775,13 +2682,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1992753623188406</v>
+        <v>0.2475247524752475</v>
       </c>
       <c r="C44">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D44">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2793,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>221</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2801,13 +2708,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1958762886597938</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="C45">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D45">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2819,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>78</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2827,13 +2734,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1780415430267062</v>
+        <v>0.22</v>
       </c>
       <c r="C46">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="D46">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2845,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>554</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2853,25 +2760,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.175792507204611</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="C47">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="D47">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="E47">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>286</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2879,13 +2786,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1708860759493671</v>
+        <v>0.1835443037974684</v>
       </c>
       <c r="C48">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D48">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2897,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2905,13 +2812,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.17</v>
+        <v>0.1824925816023739</v>
       </c>
       <c r="C49">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c r="D49">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2923,7 +2830,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>166</v>
+        <v>551</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2931,13 +2838,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1677215189873418</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="C50">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D50">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2949,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>263</v>
+        <v>226</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2957,25 +2864,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1592356687898089</v>
+        <v>0.1786743515850144</v>
       </c>
       <c r="C51">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="D51">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51">
-        <v>132</v>
+        <v>285</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2983,25 +2890,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1589403973509934</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="C52">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D52">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="E52">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F52">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>381</v>
+        <v>261</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3009,13 +2916,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1542056074766355</v>
+        <v>0.1675392670157068</v>
       </c>
       <c r="C53">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D53">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3027,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>181</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3035,13 +2942,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1465968586387434</v>
+        <v>0.1648351648351648</v>
       </c>
       <c r="C54">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D54">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3053,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>163</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3061,13 +2968,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1440677966101695</v>
+        <v>0.1571428571428571</v>
       </c>
       <c r="C55">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D55">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3079,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>101</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3087,25 +2994,25 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1314285714285714</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C56">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D56">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56">
-        <v>152</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3113,25 +3020,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1295546558704453</v>
+        <v>0.1448598130841121</v>
       </c>
       <c r="C57">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D57">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E57">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>215</v>
+        <v>183</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3139,13 +3046,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1086142322097378</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C58">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D58">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3157,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>238</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3165,25 +3072,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.106951871657754</v>
+        <v>0.1409691629955947</v>
       </c>
       <c r="C59">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="D59">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="E59">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>167</v>
+        <v>390</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3191,13 +3098,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1038251366120219</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="C60">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D60">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3209,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>164</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3217,25 +3124,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.09352517985611511</v>
+        <v>0.1336032388663968</v>
       </c>
       <c r="C61">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D61">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E61">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="F61">
-        <v>0.9299999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
       </c>
       <c r="H61">
-        <v>252</v>
+        <v>214</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3243,25 +3150,25 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.08854166666666667</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="C62">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D62">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62">
-        <v>175</v>
+        <v>231</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3269,25 +3176,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.08241758241758242</v>
+        <v>0.1311475409836066</v>
       </c>
       <c r="C63">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D63">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E63">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>334</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3295,25 +3202,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.07627118644067797</v>
+        <v>0.1210191082802548</v>
       </c>
       <c r="C64">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D64">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E64">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>327</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3321,25 +3228,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.06611570247933884</v>
+        <v>0.1075949367088608</v>
       </c>
       <c r="C65">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D65">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E65">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>565</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3347,25 +3254,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.06088992974238876</v>
+        <v>0.1016042780748663</v>
       </c>
       <c r="C66">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D66">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E66">
-        <v>0.21</v>
+        <v>0.1</v>
       </c>
       <c r="F66">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
       </c>
       <c r="H66">
-        <v>401</v>
+        <v>168</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3373,25 +3280,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.05803571428571429</v>
+        <v>0.08152173913043478</v>
       </c>
       <c r="C67">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D67">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E67">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="F67">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
       </c>
       <c r="H67">
-        <v>422</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3399,25 +3306,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.0548469387755102</v>
+        <v>0.08035714285714286</v>
       </c>
       <c r="C68">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D68">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E68">
-        <v>0.19</v>
+        <v>0.03</v>
       </c>
       <c r="F68">
-        <v>0.8100000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="G68" t="b">
         <v>1</v>
       </c>
       <c r="H68">
-        <v>741</v>
+        <v>412</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3425,25 +3332,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.04746835443037975</v>
+        <v>0.07947019867549669</v>
       </c>
       <c r="C69">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="D69">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="E69">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="F69">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
       </c>
       <c r="H69">
-        <v>301</v>
+        <v>556</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3451,25 +3358,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.04285714285714286</v>
+        <v>0.078125</v>
       </c>
       <c r="C70">
         <v>15</v>
       </c>
       <c r="D70">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E70">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>335</v>
+        <v>177</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3477,25 +3384,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.04141104294478527</v>
+        <v>0.07397260273972603</v>
       </c>
       <c r="C71">
         <v>27</v>
       </c>
       <c r="D71">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E71">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>625</v>
+        <v>338</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3503,25 +3410,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.03773584905660377</v>
+        <v>0.07323943661971831</v>
       </c>
       <c r="C72">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D72">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E72">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>408</v>
+        <v>329</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3529,13 +3436,13 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.03180914512922465</v>
+        <v>0.06093189964157706</v>
       </c>
       <c r="C73">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D73">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E73">
         <v>0.06</v>
@@ -3547,7 +3454,137 @@
         <v>1</v>
       </c>
       <c r="H73">
-        <v>487</v>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74">
+        <v>0.06012658227848101</v>
+      </c>
+      <c r="C74">
+        <v>19</v>
+      </c>
+      <c r="D74">
+        <v>20</v>
+      </c>
+      <c r="E74">
+        <v>0.05</v>
+      </c>
+      <c r="F74">
+        <v>0.95</v>
+      </c>
+      <c r="G74" t="b">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75">
+        <v>0.04754601226993865</v>
+      </c>
+      <c r="C75">
+        <v>31</v>
+      </c>
+      <c r="D75">
+        <v>34</v>
+      </c>
+      <c r="E75">
+        <v>0.09</v>
+      </c>
+      <c r="F75">
+        <v>0.91</v>
+      </c>
+      <c r="G75" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76">
+        <v>0.04203821656050955</v>
+      </c>
+      <c r="C76">
+        <v>33</v>
+      </c>
+      <c r="D76">
+        <v>42</v>
+      </c>
+      <c r="E76">
+        <v>0.21</v>
+      </c>
+      <c r="F76">
+        <v>0.79</v>
+      </c>
+      <c r="G76" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77">
+        <v>0.0372960372960373</v>
+      </c>
+      <c r="C77">
+        <v>16</v>
+      </c>
+      <c r="D77">
+        <v>21</v>
+      </c>
+      <c r="E77">
+        <v>0.24</v>
+      </c>
+      <c r="F77">
+        <v>0.76</v>
+      </c>
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78">
+        <v>0.03187250996015936</v>
+      </c>
+      <c r="C78">
+        <v>16</v>
+      </c>
+      <c r="D78">
+        <v>18</v>
+      </c>
+      <c r="E78">
+        <v>0.11</v>
+      </c>
+      <c r="F78">
+        <v>0.89</v>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>486</v>
       </c>
     </row>
   </sheetData>
